--- a/lab_1/number_data.xlsx
+++ b/lab_1/number_data.xlsx
@@ -281,7 +281,7 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -345,7 +345,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -354,7 +354,7 @@
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
